--- a/data/trans_bre/P36B13_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P36B13_R-Dificultad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.67677550446801</v>
+        <v>-10.80356479876111</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.62891541063935</v>
+        <v>-15.28987719355795</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.6576028753214858</v>
+        <v>-0.663018055762628</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.8037785624195342</v>
+        <v>-0.8001035967272345</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.511876504986684</v>
+        <v>-5.79478856261648</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.078821714276423</v>
+        <v>-6.966471043096932</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.413462523987857</v>
+        <v>-0.434233079461179</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.5632958980183023</v>
+        <v>-0.5632352444394837</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.01067688971004</v>
+        <v>-6.19188303453311</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.456069277984721</v>
+        <v>-5.408910071131618</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4680891001193499</v>
+        <v>-0.4741241781154628</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6129299746042352</v>
+        <v>-0.6148507509463352</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.6773754475911401</v>
+        <v>-0.6867247938623477</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.7356871990322361</v>
+        <v>-0.77088825109838</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.06671746644339825</v>
+        <v>-0.05494056504310728</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1081444797427496</v>
+        <v>-0.1298552007058746</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.005167292535575</v>
+        <v>-5.188707069520021</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.179417245422068</v>
+        <v>-6.431039414126547</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.3675554935063177</v>
+        <v>-0.39107738214799</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.7134951643502915</v>
+        <v>-0.7049619898287598</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.275134018655672</v>
+        <v>1.129896478321929</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.3740413640449</v>
+        <v>-1.478715414127314</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.1397501402544877</v>
+        <v>0.113610826979145</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.239276730865237</v>
+        <v>-0.251598275194615</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-3.607168911828817</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-0.674819656968293</v>
+        <v>-0.6748196569682938</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.3236129854173146</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1566634795185031</v>
+        <v>-0.1566634795185032</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.543076168583207</v>
+        <v>-7.321370994452411</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.84127375165978</v>
+        <v>-2.825875363924049</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5562657415945021</v>
+        <v>-0.5678834644386224</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5079986662834139</v>
+        <v>-0.5102935029705825</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08426193755062673</v>
+        <v>0.06713358998214181</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.602425974452305</v>
+        <v>1.27443215005228</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.0156686406979608</v>
+        <v>0.00500520263370203</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5826553557017637</v>
+        <v>0.4393829250076466</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>-4.694771476093123</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-3.646680702067525</v>
+        <v>-3.646680702067524</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>-0.3768106815419687</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-0.4858382237268919</v>
+        <v>-0.4858382237268918</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.087371652373567</v>
+        <v>-6.139417999802821</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.971775699511348</v>
+        <v>-4.948251430267039</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.4642864896607607</v>
+        <v>-0.4632027440840402</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.5843097417080698</v>
+        <v>-0.584632293299904</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.250921205476929</v>
+        <v>-3.285628925906138</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.34611731767787</v>
+        <v>-2.252709538940093</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.2757295779005789</v>
+        <v>-0.2803432431270881</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.3381126810751523</v>
+        <v>-0.3399995506992873</v>
       </c>
     </row>
     <row r="19">
